--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-56100.13594835041</v>
+        <v>-62703.40400253283</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26340120.5537561</v>
+        <v>25841374.97493689</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11076420.90340768</v>
+        <v>11090349.17873481</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4233298.67468869</v>
+        <v>4249116.24954721</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>378.5613909771058</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>96.11421736791058</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>109.9170509649102</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>78.71748910988967</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>403.1572050940909</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
-        <v>406.553567514357</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491228</v>
+        <v>94.13938596491226</v>
       </c>
       <c r="E6" t="n">
         <v>93.17921052631581</v>
@@ -992,7 +992,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>136.7376315380145</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>252.2201505265394</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>137.4692787475234</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>389.1185720126483</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491226</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
         <v>93.17921052631581</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>134.6939149869229</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1353,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>37.08069153105709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>383.7717122625497</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>140.1896195855215</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>84.53123883647795</v>
+        <v>84.53123883647797</v>
       </c>
       <c r="H12" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>91.55337003956517</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1584,19 +1584,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>104.9316083298984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,17 +1606,17 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.0646100373297</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D14" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>60.76911877777854</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H15" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>115.4012337133193</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.9165930627927</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>306.0087361885582</v>
       </c>
       <c r="X17" t="n">
-        <v>329.0850721864542</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>147.9017167755932</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>45.77418260424801</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>117.3265361290232</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>271.5592753367715</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>81.80700042666363</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>32.17019224160894</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>201.6940717218502</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>178.2051142448229</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2478,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>110.2475252865777</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2487,7 +2487,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>146.6325435271071</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.1572050940909</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>42.84621917523827</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>176.189814672348</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>129.084621233348</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>388.8240912665597</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>138.6536207161482</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>169.5802855568755</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>174.7252715647599</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>158.4355533813684</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>154.3768120801486</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>153.789575206712</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,13 +3271,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
-        <v>424.2958575201043</v>
+        <v>156.1477171941048</v>
       </c>
       <c r="E35" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>373.3071698245765</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.9644274979251</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>105.4844275987548</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>275.9873413543643</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>324.2261165371872</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>115.4012337133193</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3669,13 +3669,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -3711,25 +3711,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.79601561251501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>74.06216992684948</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>206.254198382179</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3909,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>10.25879871159217</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>115.4012337133193</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>396.0346945768795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>272.4217836655541</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>211.9606135828359</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5221469772661</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>43.25884065436964</v>
       </c>
       <c r="Y44" t="n">
-        <v>150.6773444959733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,10 +4070,10 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>83.80937540686895</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>34.34661464441015</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>49.41258657788105</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>125.9672410405524</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5256905149255</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
         <v>197.1263427586206</v>
@@ -4143,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.3301761740106</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>133.122498409159</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>69.57375468953282</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.27231528154788</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>187.479313598757</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>891.5238064999317</v>
+        <v>416.3289120128263</v>
       </c>
       <c r="C2" t="n">
-        <v>462.9421322372</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K2" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K2" t="n">
-        <v>687.9235674375537</v>
-      </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4360,22 +4360,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1296.379261088898</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1296.379261088898</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W2" t="n">
-        <v>891.5238064999317</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="X2" t="n">
-        <v>891.5238064999317</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="Y2" t="n">
-        <v>891.5238064999317</v>
+        <v>842.6284824977341</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.5053801183834</v>
+        <v>487.2907080746261</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>314.7289965578511</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E4" t="n">
         <v>33.94366860160834</v>
@@ -4494,13 +4494,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823371</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4518,22 +4518,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W4" t="n">
-        <v>625.7436695232623</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="X4" t="n">
-        <v>625.7436695232623</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="Y4" t="n">
-        <v>398.3239988373705</v>
+        <v>679.1093267936133</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>873.1855120707613</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C5" t="n">
-        <v>873.1855120707613</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D5" t="n">
-        <v>444.6038378080297</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E5" t="n">
         <v>33.94366860160834</v>
@@ -4567,25 +4567,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q5" t="n">
         <v>1528.02936532736</v>
@@ -4606,13 +4606,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y5" t="n">
-        <v>873.1855120707613</v>
+        <v>869.7548429593813</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4646,22 +4646,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>514.6475351736976</v>
+        <v>516.4308897479549</v>
       </c>
       <c r="C7" t="n">
-        <v>376.5287154383295</v>
+        <v>516.4308897479549</v>
       </c>
       <c r="D7" t="n">
-        <v>210.6507226398521</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
         <v>33.94366860160834</v>
@@ -4728,49 +4728,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>1015.876964847555</v>
       </c>
       <c r="V7" t="n">
-        <v>1451.303983658873</v>
+        <v>1015.876964847555</v>
       </c>
       <c r="W7" t="n">
-        <v>1179.277579245164</v>
+        <v>743.8505604338466</v>
       </c>
       <c r="X7" t="n">
-        <v>933.8858245785766</v>
+        <v>743.8505604338466</v>
       </c>
       <c r="Y7" t="n">
-        <v>706.4661538926848</v>
+        <v>516.4308897479549</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1292.327975491451</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="C8" t="n">
-        <v>863.7463012287189</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7463012287189</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="E8" t="n">
-        <v>863.7463012287189</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F8" t="n">
-        <v>724.8884439079882</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
         <v>34.36045797446834</v>
@@ -4834,22 +4834,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="X8" t="n">
-        <v>1292.327975491451</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="Y8" t="n">
-        <v>1292.327975491451</v>
+        <v>462.2278875652606</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4889,16 +4889,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>641.6303871312145</v>
+        <v>847.6348259499213</v>
       </c>
       <c r="C10" t="n">
-        <v>469.0686756144395</v>
+        <v>675.0731144331462</v>
       </c>
       <c r="D10" t="n">
-        <v>469.0686756144395</v>
+        <v>509.1951216346689</v>
       </c>
       <c r="E10" t="n">
-        <v>299.3106718651768</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F10" t="n">
-        <v>122.603617826933</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M10" t="n">
-        <v>1181.483761245743</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O10" t="n">
         <v>1181.483761245743</v>
@@ -4989,25 +4989,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T10" t="n">
-        <v>1429.886162364244</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U10" t="n">
-        <v>1429.886162364244</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V10" t="n">
-        <v>1142.930654234675</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W10" t="n">
-        <v>870.9042498209665</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="X10" t="n">
-        <v>870.9042498209665</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.4490058502017</v>
+        <v>983.6892855326716</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1278.040966659728</v>
+        <v>462.9421322372</v>
       </c>
       <c r="C11" t="n">
-        <v>1278.040966659728</v>
+        <v>462.9421322372</v>
       </c>
       <c r="D11" t="n">
-        <v>890.3927724551322</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E11" t="n">
-        <v>461.8110981924006</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F11" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G11" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H11" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I11" t="n">
         <v>33.94366860160834</v>
@@ -5044,19 +5044,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O11" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P11" t="n">
         <v>1107.976466382457</v>
@@ -5068,25 +5068,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1251.858652788281</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>889.2417027221078</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>889.2417027221078</v>
       </c>
       <c r="X11" t="n">
-        <v>1278.040966659728</v>
+        <v>889.2417027221078</v>
       </c>
       <c r="Y11" t="n">
-        <v>1278.040966659728</v>
+        <v>889.2417027221078</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
@@ -5123,19 +5123,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K12" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M12" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N12" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O12" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>262.5057921365585</v>
+        <v>727.1381021437282</v>
       </c>
       <c r="C13" t="n">
-        <v>262.5057921365585</v>
+        <v>727.1381021437282</v>
       </c>
       <c r="D13" t="n">
-        <v>262.5057921365585</v>
+        <v>727.1381021437282</v>
       </c>
       <c r="E13" t="n">
-        <v>262.5057921365585</v>
+        <v>557.3800983944654</v>
       </c>
       <c r="F13" t="n">
-        <v>262.5057921365585</v>
+        <v>380.6730443562217</v>
       </c>
       <c r="G13" t="n">
-        <v>262.5057921365585</v>
+        <v>215.0817693820493</v>
       </c>
       <c r="H13" t="n">
         <v>122.603617826933</v>
@@ -5199,25 +5199,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>120.5233537662982</v>
+        <v>67.00315850392299</v>
       </c>
       <c r="K13" t="n">
-        <v>395.2818083374338</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="L13" t="n">
-        <v>813.4916901053949</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M13" t="n">
-        <v>929.6236371651722</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N13" t="n">
-        <v>1349.676536110076</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O13" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q13" t="n">
         <v>1697.183430080417</v>
@@ -5232,19 +5232,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U13" t="n">
-        <v>1172.870982911978</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V13" t="n">
-        <v>885.9154747824084</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W13" t="n">
-        <v>613.8890703687</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="X13" t="n">
-        <v>368.4973157021125</v>
+        <v>918.9567208627154</v>
       </c>
       <c r="Y13" t="n">
-        <v>262.5057921365585</v>
+        <v>918.9567208627154</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>891.1070171270717</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C14" t="n">
-        <v>462.52534286434</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="D14" t="n">
-        <v>33.94366860160834</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="E14" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F14" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H14" t="n">
         <v>33.94366860160834</v>
@@ -5281,19 +5281,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L14" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M14" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N14" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O14" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P14" t="n">
         <v>1107.976466382457</v>
@@ -5308,22 +5308,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>813.0384456815061</v>
       </c>
       <c r="X14" t="n">
-        <v>1278.040966659728</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y14" t="n">
-        <v>1278.040966659728</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C15" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D15" t="n">
         <v>338.5686635760967</v>
@@ -5345,22 +5345,22 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F15" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H15" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I15" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J15" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K15" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L15" t="n">
         <v>1159.957753041174</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1113.00182921349</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C16" t="n">
-        <v>940.4401176967148</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D16" t="n">
-        <v>774.5621248982375</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E16" t="n">
-        <v>604.8041211489747</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F16" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G16" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H16" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I16" t="n">
         <v>33.94366860160834</v>
@@ -5442,46 +5442,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L16" t="n">
-        <v>33.94366860160834</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M16" t="n">
-        <v>453.9965675465116</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N16" t="n">
-        <v>874.0494664914149</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O16" t="n">
-        <v>1293.718715717196</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P16" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1516.524240083786</v>
+        <v>1476.055558299819</v>
       </c>
       <c r="U16" t="n">
-        <v>1516.524240083786</v>
+        <v>1197.622557552924</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.568731954216</v>
+        <v>910.6670494233545</v>
       </c>
       <c r="W16" t="n">
-        <v>1229.568731954216</v>
+        <v>910.6670494233545</v>
       </c>
       <c r="X16" t="n">
-        <v>1229.568731954216</v>
+        <v>910.6670494233545</v>
       </c>
       <c r="Y16" t="n">
-        <v>1229.568731954216</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.36045797446834</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C17" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D17" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E17" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F17" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G17" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H17" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I17" t="n">
         <v>33.94366860160834</v>
@@ -5518,16 +5518,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L17" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M17" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N17" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O17" t="n">
         <v>687.9235674375537</v>
@@ -5554,13 +5554,13 @@
         <v>771.6250763881362</v>
       </c>
       <c r="W17" t="n">
-        <v>366.7696217991695</v>
+        <v>462.52534286434</v>
       </c>
       <c r="X17" t="n">
-        <v>34.36045797446834</v>
+        <v>462.52534286434</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.36045797446834</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="18">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>691.5370501768236</v>
+        <v>692.8726122155155</v>
       </c>
       <c r="C19" t="n">
-        <v>518.9753386600486</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="D19" t="n">
-        <v>353.0973458615713</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E19" t="n">
-        <v>183.3393421123085</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H19" t="n">
         <v>33.94366860160834</v>
@@ -5673,52 +5673,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>68.8461756808652</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K19" t="n">
-        <v>343.6046302520008</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L19" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M19" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N19" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O19" t="n">
-        <v>1181.483761245743</v>
+        <v>1233.160939331176</v>
       </c>
       <c r="P19" t="n">
-        <v>1528.990655216085</v>
+        <v>1580.667833301518</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U19" t="n">
-        <v>1451.303983658873</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.348475529303</v>
+        <v>1629.52906070069</v>
       </c>
       <c r="W19" t="n">
-        <v>1164.348475529303</v>
+        <v>1357.502656286982</v>
       </c>
       <c r="X19" t="n">
-        <v>918.9567208627154</v>
+        <v>1112.110901620394</v>
       </c>
       <c r="Y19" t="n">
-        <v>691.5370501768236</v>
+        <v>884.6912309345025</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>580.3227508479796</v>
+        <v>709.6437982983157</v>
       </c>
       <c r="C20" t="n">
-        <v>461.8110981924006</v>
+        <v>709.6437982983157</v>
       </c>
       <c r="D20" t="n">
-        <v>461.8110981924006</v>
+        <v>709.6437982983157</v>
       </c>
       <c r="E20" t="n">
-        <v>461.8110981924006</v>
+        <v>709.6437982983157</v>
       </c>
       <c r="F20" t="n">
-        <v>33.94366860160834</v>
+        <v>709.6437982983157</v>
       </c>
       <c r="G20" t="n">
-        <v>33.94366860160834</v>
+        <v>308.2459669215796</v>
       </c>
       <c r="H20" t="n">
         <v>33.94366860160834</v>
@@ -5752,10 +5752,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K20" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L20" t="n">
         <v>453.9965675465116</v>
@@ -5767,10 +5767,10 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O20" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P20" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q20" t="n">
         <v>1528.02936532736</v>
@@ -5779,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U20" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V20" t="n">
-        <v>1393.464329137293</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W20" t="n">
-        <v>988.6088745483262</v>
+        <v>709.6437982983157</v>
       </c>
       <c r="X20" t="n">
-        <v>988.6088745483262</v>
+        <v>709.6437982983157</v>
       </c>
       <c r="Y20" t="n">
-        <v>580.3227508479796</v>
+        <v>709.6437982983157</v>
       </c>
     </row>
     <row r="21">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>422.0704516497129</v>
+        <v>973.0996549038641</v>
       </c>
       <c r="C22" t="n">
-        <v>422.0704516497129</v>
+        <v>800.5379433870891</v>
       </c>
       <c r="D22" t="n">
-        <v>422.0704516497129</v>
+        <v>634.6599505886118</v>
       </c>
       <c r="E22" t="n">
-        <v>422.0704516497129</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="F22" t="n">
-        <v>339.4371178854062</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G22" t="n">
-        <v>173.8458429112338</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H22" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I22" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>68.8461756808652</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K22" t="n">
-        <v>343.6046302520008</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L22" t="n">
-        <v>761.8145120199619</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M22" t="n">
-        <v>761.8145120199619</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N22" t="n">
         <v>761.8145120199619</v>
@@ -5937,25 +5937,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T22" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U22" t="n">
-        <v>1172.870982911978</v>
+        <v>1505.446917700021</v>
       </c>
       <c r="V22" t="n">
-        <v>885.9154747824084</v>
+        <v>1218.491409570452</v>
       </c>
       <c r="W22" t="n">
-        <v>613.8890703687</v>
+        <v>1218.491409570452</v>
       </c>
       <c r="X22" t="n">
-        <v>613.8890703687</v>
+        <v>973.0996549038641</v>
       </c>
       <c r="Y22" t="n">
-        <v>613.8890703687</v>
+        <v>973.0996549038641</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>462.52534286434</v>
+        <v>237.6750541792348</v>
       </c>
       <c r="C23" t="n">
-        <v>33.94366860160834</v>
+        <v>237.6750541792348</v>
       </c>
       <c r="D23" t="n">
         <v>33.94366860160834</v>
@@ -6028,13 +6028,13 @@
         <v>1477.116202953456</v>
       </c>
       <c r="W23" t="n">
-        <v>1477.116202953456</v>
+        <v>1072.260748364489</v>
       </c>
       <c r="X23" t="n">
-        <v>1297.111037049594</v>
+        <v>1072.260748364489</v>
       </c>
       <c r="Y23" t="n">
-        <v>888.8249133492478</v>
+        <v>663.9746246641427</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J24" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
         <v>1159.957753041174</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>646.5320767766295</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C25" t="n">
-        <v>535.1709401235207</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D25" t="n">
-        <v>369.2929473250434</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E25" t="n">
-        <v>199.5349435757807</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F25" t="n">
         <v>199.5349435757807</v>
@@ -6153,13 +6153,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M25" t="n">
-        <v>813.4916901053949</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N25" t="n">
-        <v>813.4916901053949</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O25" t="n">
         <v>1181.483761245743</v>
@@ -6171,28 +6171,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T25" t="n">
-        <v>1675.765608785789</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="U25" t="n">
-        <v>1397.332608038895</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="V25" t="n">
-        <v>1110.377099909325</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="W25" t="n">
-        <v>838.3506954956167</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="X25" t="n">
-        <v>838.3506954956167</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y25" t="n">
-        <v>838.3506954956167</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>323.4906125312521</v>
+        <v>869.7548429593813</v>
       </c>
       <c r="C26" t="n">
-        <v>323.4906125312521</v>
+        <v>441.1731686966497</v>
       </c>
       <c r="D26" t="n">
-        <v>323.4906125312521</v>
+        <v>441.1731686966497</v>
       </c>
       <c r="E26" t="n">
-        <v>323.4906125312521</v>
+        <v>441.1731686966497</v>
       </c>
       <c r="F26" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G26" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H26" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I26" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J26" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L26" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M26" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N26" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O26" t="n">
         <v>687.9235674375537</v>
@@ -6253,25 +6253,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S26" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T26" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U26" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V26" t="n">
-        <v>771.6250763881362</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W26" t="n">
-        <v>366.7696217991695</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X26" t="n">
-        <v>323.4906125312521</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y26" t="n">
-        <v>323.4906125312521</v>
+        <v>869.7548429593813</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6293,10 +6293,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
@@ -6311,19 +6311,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L27" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M27" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="N27" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="O27" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P27" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q27" t="n">
         <v>1580.010651986078</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>854.5838762389023</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C28" t="n">
-        <v>682.0221647221273</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D28" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E28" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F28" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G28" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H28" t="n">
         <v>33.94366860160834</v>
@@ -6390,13 +6390,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L28" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M28" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N28" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O28" t="n">
         <v>1181.483761245743</v>
@@ -6414,22 +6414,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T28" t="n">
-        <v>1519.213920310369</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U28" t="n">
-        <v>1519.213920310369</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V28" t="n">
-        <v>1519.213920310369</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W28" t="n">
-        <v>1519.213920310369</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X28" t="n">
-        <v>1273.822165643781</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y28" t="n">
-        <v>1046.40249495789</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>855.2769502042993</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C29" t="n">
-        <v>855.2769502042993</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D29" t="n">
-        <v>855.2769502042993</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E29" t="n">
-        <v>855.2769502042993</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F29" t="n">
-        <v>724.8884439079882</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G29" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H29" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I29" t="n">
         <v>33.94366860160834</v>
@@ -6466,19 +6466,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L29" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M29" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N29" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O29" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P29" t="n">
         <v>1107.976466382457</v>
@@ -6502,13 +6502,13 @@
         <v>855.2769502042993</v>
       </c>
       <c r="W29" t="n">
-        <v>855.2769502042993</v>
+        <v>462.52534286434</v>
       </c>
       <c r="X29" t="n">
-        <v>855.2769502042993</v>
+        <v>462.52534286434</v>
       </c>
       <c r="Y29" t="n">
-        <v>855.2769502042993</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="30">
@@ -6524,10 +6524,10 @@
         <v>433.6589524295435</v>
       </c>
       <c r="D30" t="n">
-        <v>338.5686635760968</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E30" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
         <v>161.0644105192121</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>947.4105542393174</v>
+        <v>821.8109954909876</v>
       </c>
       <c r="C31" t="n">
-        <v>774.8488427225424</v>
+        <v>649.2492839742125</v>
       </c>
       <c r="D31" t="n">
-        <v>608.9708499240651</v>
+        <v>649.2492839742125</v>
       </c>
       <c r="E31" t="n">
-        <v>439.2128461748023</v>
+        <v>479.4912802249498</v>
       </c>
       <c r="F31" t="n">
-        <v>262.5057921365585</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G31" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H31" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>67.00315850392299</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K31" t="n">
-        <v>341.7616130750586</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L31" t="n">
-        <v>341.7616130750586</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M31" t="n">
-        <v>341.7616130750586</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N31" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O31" t="n">
         <v>1181.483761245743</v>
@@ -6651,22 +6651,22 @@
         <v>1537.942061378414</v>
       </c>
       <c r="T31" t="n">
-        <v>1537.942061378414</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U31" t="n">
-        <v>1537.942061378414</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V31" t="n">
-        <v>1537.942061378414</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="W31" t="n">
-        <v>1537.942061378414</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="X31" t="n">
-        <v>1366.648843644196</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="Y31" t="n">
-        <v>1139.229172958305</v>
+        <v>1013.629614209975</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>499.9807858289894</v>
+        <v>622.5612553707728</v>
       </c>
       <c r="C32" t="n">
-        <v>499.9807858289894</v>
+        <v>193.9795811080411</v>
       </c>
       <c r="D32" t="n">
-        <v>499.9807858289894</v>
+        <v>193.9795811080411</v>
       </c>
       <c r="E32" t="n">
-        <v>499.9807858289894</v>
+        <v>193.9795811080411</v>
       </c>
       <c r="F32" t="n">
-        <v>323.4906125312521</v>
+        <v>193.9795811080411</v>
       </c>
       <c r="G32" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H32" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I32" t="n">
         <v>33.94366860160834</v>
@@ -6727,25 +6727,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T32" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U32" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V32" t="n">
-        <v>1334.566480014244</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W32" t="n">
-        <v>1334.566480014244</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="X32" t="n">
-        <v>1334.566480014244</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="Y32" t="n">
-        <v>926.2803563138972</v>
+        <v>622.5612553707728</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6767,10 +6767,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>613.8890703687</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="C34" t="n">
-        <v>613.8890703687</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="D34" t="n">
-        <v>613.8890703687</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E34" t="n">
-        <v>444.1310666194373</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F34" t="n">
-        <v>288.1948928011053</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G34" t="n">
-        <v>122.603617826933</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H34" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>68.8461756808652</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K34" t="n">
-        <v>343.6046302520008</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L34" t="n">
-        <v>761.8145120199619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M34" t="n">
-        <v>761.8145120199619</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N34" t="n">
         <v>761.8145120199619</v>
@@ -6891,19 +6891,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U34" t="n">
-        <v>1172.870982911978</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V34" t="n">
-        <v>885.9154747824084</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="W34" t="n">
-        <v>613.8890703687</v>
+        <v>1295.960978399567</v>
       </c>
       <c r="X34" t="n">
-        <v>613.8890703687</v>
+        <v>1050.56922373298</v>
       </c>
       <c r="Y34" t="n">
-        <v>613.8890703687</v>
+        <v>1050.56922373298</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1320.105480762663</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="C35" t="n">
-        <v>891.5238064999317</v>
+        <v>1048.534528690724</v>
       </c>
       <c r="D35" t="n">
-        <v>462.9421322372</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E35" t="n">
-        <v>34.36045797446834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F35" t="n">
         <v>34.36045797446834</v>
@@ -6937,19 +6937,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L35" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M35" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N35" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O35" t="n">
         <v>687.9235674375537</v>
@@ -6967,22 +6967,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U35" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V35" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W35" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X35" t="n">
-        <v>1320.105480762663</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y35" t="n">
-        <v>1320.105480762663</v>
+        <v>1477.116202953456</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C36" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D36" t="n">
         <v>338.5686635760967</v>
@@ -7004,10 +7004,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F36" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
@@ -7022,16 +7022,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M36" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N36" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O36" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P36" t="n">
         <v>1159.957753041174</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>718.8484307043673</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C37" t="n">
-        <v>546.2867191875922</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D37" t="n">
-        <v>380.4087263891149</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E37" t="n">
-        <v>210.6507226398521</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F37" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G37" t="n">
         <v>33.94366860160834</v>
@@ -7095,16 +7095,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>68.8461756808652</v>
+        <v>67.00315850392299</v>
       </c>
       <c r="K37" t="n">
-        <v>343.6046302520008</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="L37" t="n">
-        <v>761.8145120199619</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M37" t="n">
-        <v>761.8145120199619</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N37" t="n">
         <v>761.8145120199619</v>
@@ -7119,28 +7119,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S37" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T37" t="n">
-        <v>1284.236939580831</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U37" t="n">
-        <v>1005.803938833937</v>
+        <v>1590.633503212988</v>
       </c>
       <c r="V37" t="n">
-        <v>718.8484307043673</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="W37" t="n">
-        <v>718.8484307043673</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="X37" t="n">
-        <v>718.8484307043673</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y37" t="n">
-        <v>718.8484307043673</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>752.0722867939837</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="C38" t="n">
-        <v>323.4906125312521</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="D38" t="n">
-        <v>323.4906125312521</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E38" t="n">
-        <v>323.4906125312521</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F38" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G38" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H38" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I38" t="n">
         <v>33.94366860160834</v>
@@ -7201,25 +7201,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T38" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U38" t="n">
-        <v>1393.464329137293</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V38" t="n">
-        <v>1030.847379071119</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W38" t="n">
-        <v>752.0722867939837</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="X38" t="n">
-        <v>752.0722867939837</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="Y38" t="n">
-        <v>752.0722867939837</v>
+        <v>890.3927724551322</v>
       </c>
     </row>
     <row r="39">
@@ -7259,19 +7259,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L39" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M39" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="N39" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="O39" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P39" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q39" t="n">
         <v>1580.010651986078</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>600.9454964518109</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C40" t="n">
-        <v>428.3837849350358</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D40" t="n">
-        <v>262.5057921365585</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E40" t="n">
-        <v>262.5057921365585</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F40" t="n">
-        <v>262.5057921365585</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G40" t="n">
         <v>262.5057921365585</v>
@@ -7359,25 +7359,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S40" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T40" t="n">
-        <v>1429.886162364244</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U40" t="n">
-        <v>1151.45316161735</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V40" t="n">
-        <v>1151.45316161735</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W40" t="n">
-        <v>879.4267572036415</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X40" t="n">
-        <v>879.4267572036415</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="Y40" t="n">
-        <v>792.764115170798</v>
+        <v>1229.568731954216</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>510.5685620045878</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="C41" t="n">
-        <v>435.7582893512044</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="D41" t="n">
-        <v>435.7582893512044</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="E41" t="n">
-        <v>435.7582893512044</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F41" t="n">
-        <v>435.7582893512044</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I41" t="n">
         <v>33.94366860160834</v>
@@ -7441,22 +7441,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T41" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U41" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V41" t="n">
-        <v>1334.566480014244</v>
+        <v>1268.778628830043</v>
       </c>
       <c r="W41" t="n">
-        <v>929.7110254252771</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="X41" t="n">
-        <v>510.5685620045878</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="Y41" t="n">
-        <v>510.5685620045878</v>
+        <v>863.9231742410761</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K42" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L42" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M42" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N42" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O42" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P42" t="n">
         <v>1159.957753041174</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1113.00182921349</v>
+        <v>519.8442623999761</v>
       </c>
       <c r="C43" t="n">
-        <v>940.4401176967148</v>
+        <v>519.8442623999761</v>
       </c>
       <c r="D43" t="n">
-        <v>774.5621248982375</v>
+        <v>353.9662696014988</v>
       </c>
       <c r="E43" t="n">
-        <v>604.8041211489747</v>
+        <v>184.208265852236</v>
       </c>
       <c r="F43" t="n">
-        <v>428.0970671107308</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G43" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H43" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I43" t="n">
         <v>33.94366860160834</v>
@@ -7578,13 +7578,13 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M43" t="n">
-        <v>1181.483761245743</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="N43" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O43" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P43" t="n">
         <v>1528.990655216085</v>
@@ -7599,22 +7599,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T43" t="n">
-        <v>1399.957337343059</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U43" t="n">
-        <v>1399.957337343059</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V43" t="n">
-        <v>1113.00182921349</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W43" t="n">
-        <v>1113.00182921349</v>
+        <v>711.6628811189632</v>
       </c>
       <c r="X43" t="n">
-        <v>1113.00182921349</v>
+        <v>711.6628811189632</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.00182921349</v>
+        <v>711.6628811189632</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>709.1522324828544</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="C44" t="n">
-        <v>709.1522324828544</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D44" t="n">
-        <v>709.1522324828544</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E44" t="n">
-        <v>709.1522324828544</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F44" t="n">
-        <v>709.1522324828544</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G44" t="n">
-        <v>309.1171874557034</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H44" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
-        <v>85.02847154687562</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>198.3915302050083</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>368.2933687921387</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L44" t="n">
-        <v>579.0716233077374</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M44" t="n">
-        <v>813.6030440780561</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N44" t="n">
-        <v>1051.92942843149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O44" t="n">
-        <v>1276.974275035835</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P44" t="n">
-        <v>1469.044845016103</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q44" t="n">
-        <v>1613.28184409613</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T44" t="n">
-        <v>1483.081800198765</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U44" t="n">
-        <v>1223.968520423748</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V44" t="n">
-        <v>861.3515703575749</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W44" t="n">
-        <v>861.3515703575749</v>
+        <v>366.7696217991695</v>
       </c>
       <c r="X44" t="n">
-        <v>861.3515703575749</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="Y44" t="n">
-        <v>709.1522324828544</v>
+        <v>323.0738231583921</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>532.3441565755794</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>425.8876954122217</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
-        <v>330.7974065587749</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>236.6769918857286</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>153.2931535018903</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G45" t="n">
-        <v>68.63721874747718</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H45" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>84.61243668840937</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J45" t="n">
-        <v>476.1060756401154</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K45" t="n">
-        <v>591.5055380481646</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>746.6743564339777</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M45" t="n">
-        <v>927.7490486498834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N45" t="n">
-        <v>1113.616249164181</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O45" t="n">
-        <v>1283.648425529704</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P45" t="n">
-        <v>1420.114237364499</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>1511.338018604792</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>1672.881462148471</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>1622.96975853445</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>1495.730121119751</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>1319.441544842048</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>1120.324026904048</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>935.0012726372418</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>780.1338368761218</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>653.6480576553425</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1088.57209663639</v>
+        <v>714.6817019292769</v>
       </c>
       <c r="C46" t="n">
-        <v>916.0103851196149</v>
+        <v>542.1199904125018</v>
       </c>
       <c r="D46" t="n">
-        <v>750.1323923211376</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="E46" t="n">
-        <v>580.3743885718749</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F46" t="n">
-        <v>403.667334533631</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G46" t="n">
-        <v>238.687358600287</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
-        <v>104.2201884900254</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>76.30245582865298</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>420.669409919093</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>782.6184676270011</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>876.5354752335243</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N46" t="n">
-        <v>968.2193463139978</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O46" t="n">
-        <v>1052.904240721364</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>1472.873691624791</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
-        <v>1691.235784882888</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S46" t="n">
-        <v>1697.183430080417</v>
+        <v>1625.191192422288</v>
       </c>
       <c r="T46" t="n">
-        <v>1697.183430080417</v>
+        <v>1379.311746000743</v>
       </c>
       <c r="U46" t="n">
-        <v>1697.183430080417</v>
+        <v>1379.311746000743</v>
       </c>
       <c r="V46" t="n">
-        <v>1697.183430080417</v>
+        <v>1379.311746000743</v>
       </c>
       <c r="W46" t="n">
-        <v>1697.183430080417</v>
+        <v>1379.311746000743</v>
       </c>
       <c r="X46" t="n">
-        <v>1507.810386041269</v>
+        <v>1133.919991334156</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.390715355377</v>
+        <v>906.5003206482641</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8142,16 +8142,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8294,25 +8294,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>262.4693064538401</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L6" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8376,25 +8376,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>33.39342414375216</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8537,19 +8537,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8610,22 +8610,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M10" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8692,7 +8692,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8704,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P11" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -8771,10 +8771,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>117.3049970300782</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,22 +8929,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6484237362511</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,14 +9400,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9558,19 +9558,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>33.39342414375216</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9801,16 +9801,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>371.7091627680287</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -9959,10 +9959,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10038,16 +10038,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10114,7 +10114,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P29" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -10269,22 +10269,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.39342414375217</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -10670,19 +10670,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -10743,19 +10743,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>35.25505765581501</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -10907,10 +10907,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11141,10 +11141,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -11226,16 +11226,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>298.4303698644312</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.247856393557</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>275.6304481725202</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>55.19965711130516</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -22567,7 +22567,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>160.5158622882427</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,10 +22710,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>54.30216190558235</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -22758,7 +22758,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>190.5886512596817</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>18.87936968596779</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -22792,7 +22792,7 @@
         <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
-        <v>22.88342987893071</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -22846,13 +22846,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>34.09846286359283</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22959,7 +22959,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22989,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>23.42852021288633</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23023,7 +23023,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -23032,13 +23032,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>286.1194765473609</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23074,16 +23074,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>11.68832803042869</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>55.20651754487437</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,7 +23229,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23241,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>188.0647824479757</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>47.77897471475018</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -23278,7 +23278,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>116.4404600706317</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -23424,16 +23424,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>46.94978252696406</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>120.2138656491344</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.97196474272903</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23512,7 +23512,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23548,19 +23548,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>354.1819200087039</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.49919881847789</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>24.50405889453654</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23752,7 +23752,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>94.7981638545188</v>
       </c>
       <c r="X17" t="n">
-        <v>85.86596660002823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>27.03826672226816</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>238.3117704440258</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>316.4345119593877</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -23980,13 +23980,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>14.67957767444443</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>93.1329830711977</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>243.4784784978168</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>229.8566152554497</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -24268,10 +24268,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>236.7459245416595</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>60.58856911502959</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>96.78810843022222</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -24454,16 +24454,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>20.43155020079342</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>372.1048196112441</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24654,16 +24654,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>67.23083728498128</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24691,16 +24691,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>294.5041340615363</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>11.98280877651734</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>36.28636278171317</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -24903,10 +24903,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>73.35755156304614</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24928,16 +24928,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>248.8634837301244</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>238.9482996816003</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>20.56317141771271</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>115.5165651628594</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -25159,13 +25159,13 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
-        <v>7.254829457195569</v>
+        <v>275.4029697831951</v>
       </c>
       <c r="E35" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -25207,7 +25207,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -25219,7 +25219,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>41.64386896190592</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>13.45622445940421</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>170.1642431406709</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25402,16 +25402,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>124.8195586887127</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>79.97714592615591</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>74.49919881847789</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>139.3494583665178</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>359.6988781615614</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -25648,7 +25648,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>152.7365821833328</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>164.6811847862692</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>128.01941824401</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -25879,13 +25879,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.07140607624191</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>371.6921981321128</v>
       </c>
       <c r="Y44" t="n">
-        <v>253.5259179673698</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>147.1022126635735</v>
+        <v>86.37663973343543</v>
       </c>
       <c r="T46" t="n">
-        <v>240.8348570146258</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.615660591221</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -26088,7 +26088,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>55.45852352116469</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>367471.3375850566</v>
+        <v>367471.3375850565</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>367471.3375850567</v>
+        <v>367471.3375850565</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>367471.3375850565</v>
+        <v>367471.3375850567</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>367471.3375850567</v>
+        <v>367471.3375850566</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>367471.3375850567</v>
+        <v>367471.3375850566</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>367471.3375850567</v>
+        <v>367471.3375850565</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>367471.3375850565</v>
+        <v>367471.3375850566</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>367471.3375850567</v>
+        <v>367471.3375850566</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>340080.4157443631</v>
+        <v>367471.3375850566</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>96161.87004965883</v>
+      </c>
+      <c r="C2" t="n">
+        <v>96161.87004965883</v>
+      </c>
+      <c r="D2" t="n">
+        <v>96161.8700496588</v>
+      </c>
+      <c r="E2" t="n">
+        <v>96161.8700496588</v>
+      </c>
+      <c r="F2" t="n">
         <v>96161.87004965881</v>
       </c>
-      <c r="C2" t="n">
-        <v>96161.8700496588</v>
-      </c>
-      <c r="D2" t="n">
-        <v>96161.87004965883</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>96161.87004965881</v>
-      </c>
-      <c r="F2" t="n">
-        <v>96161.8700496588</v>
-      </c>
-      <c r="G2" t="n">
-        <v>96161.87004965878</v>
       </c>
       <c r="H2" t="n">
         <v>96161.87004965881</v>
       </c>
       <c r="I2" t="n">
-        <v>96161.8700496588</v>
+        <v>96161.87004965881</v>
       </c>
       <c r="J2" t="n">
-        <v>96161.8700496588</v>
+        <v>96161.87004965883</v>
       </c>
       <c r="K2" t="n">
-        <v>96161.8700496588</v>
+        <v>96161.87004965881</v>
       </c>
       <c r="L2" t="n">
         <v>96161.87004965881</v>
       </c>
       <c r="M2" t="n">
-        <v>96161.87004965881</v>
+        <v>96161.8700496588</v>
       </c>
       <c r="N2" t="n">
         <v>96161.87004965881</v>
@@ -26355,7 +26355,7 @@
         <v>96161.87004965881</v>
       </c>
       <c r="P2" t="n">
-        <v>98390.39410199999</v>
+        <v>96161.87004965878</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>223369.4177486677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26435,7 +26435,7 @@
         <v>43292.95496317923</v>
       </c>
       <c r="H4" t="n">
-        <v>43292.95496317923</v>
+        <v>43292.95496317922</v>
       </c>
       <c r="I4" t="n">
         <v>43292.95496317923</v>
@@ -26459,7 +26459,7 @@
         <v>43292.95496317923</v>
       </c>
       <c r="P4" t="n">
-        <v>8379.203228500521</v>
+        <v>43292.95496317923</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>33113.33731766298</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-148747.1737104527</v>
+        <v>-149486.5303223683</v>
       </c>
       <c r="C6" t="n">
-        <v>-6555.873050742768</v>
+        <v>-7295.229662658393</v>
       </c>
       <c r="D6" t="n">
-        <v>-6555.873050742739</v>
+        <v>-7295.229662658422</v>
       </c>
       <c r="E6" t="n">
-        <v>27071.72694925724</v>
+        <v>26332.37033734157</v>
       </c>
       <c r="F6" t="n">
-        <v>27071.72694925722</v>
+        <v>26332.37033734159</v>
       </c>
       <c r="G6" t="n">
-        <v>27071.72694925722</v>
+        <v>26332.37033734159</v>
       </c>
       <c r="H6" t="n">
-        <v>27071.72694925725</v>
+        <v>26332.3703373416</v>
       </c>
       <c r="I6" t="n">
-        <v>27071.72694925724</v>
+        <v>26332.37033734159</v>
       </c>
       <c r="J6" t="n">
-        <v>-83942.73839573294</v>
+        <v>-84682.09500764858</v>
       </c>
       <c r="K6" t="n">
-        <v>27071.72694925722</v>
+        <v>26332.37033734159</v>
       </c>
       <c r="L6" t="n">
-        <v>27071.72694925725</v>
+        <v>26332.37033734159</v>
       </c>
       <c r="M6" t="n">
-        <v>27071.72694925725</v>
+        <v>26332.37033734157</v>
       </c>
       <c r="N6" t="n">
-        <v>27071.72694925725</v>
+        <v>26332.37033734158</v>
       </c>
       <c r="O6" t="n">
-        <v>27071.72694925725</v>
+        <v>26332.37033734159</v>
       </c>
       <c r="P6" t="n">
-        <v>-166471.5641928312</v>
+        <v>26332.37033734156</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>335.6031734147081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>335.6031734147081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.349158486089278</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>13.81706934566182</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>52.01343253495693</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>114.5081400587199</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>171.6180187748791</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>212.9073277935339</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>236.9004250205241</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>240.7337215691253</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>227.318026873075</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>194.0106767477459</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>145.6939384646736</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>84.74907675180567</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>30.74394900175945</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>5.905941272855816</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1079326788871422</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7218634296089949</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>6.971681017539504</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>24.85363123873075</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>68.20026375968141</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>116.5651135434841</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>156.7361801876899</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>182.9037295110159</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>187.7446469841394</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>171.7496730964875</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>137.8442543785808</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>92.14523357605346</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.81885398923217</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>13.4082965982197</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>2.909616192152044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04749101510585494</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6051860504199654</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>5.380654157370242</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>18.1995950435386</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.78665376469155</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>70.31161567606506</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>89.97466062334651</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>94.86566424901329</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>92.60997078835713</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>85.54029738117842</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>73.19450195261106</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.67607918562093</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>27.21136550342862</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>10.54674235140976</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.585794942703488</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03301014820472543</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34862,16 +34862,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35014,25 +35014,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>262.4693064538401</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L6" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>33.39342414375216</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35330,22 +35330,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M10" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -35412,7 +35412,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P11" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -35491,10 +35491,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>117.3049970300782</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35810,22 +35810,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6484237362511</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36062,7 +36062,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,14 +36120,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
@@ -36135,13 +36135,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>33.39342414375216</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36521,16 +36521,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>371.7091627680287</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -36679,10 +36679,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36758,16 +36758,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -36834,7 +36834,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P29" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.39342414375217</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -37390,19 +37390,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>35.25505765581501</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -37627,10 +37627,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37861,10 +37861,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -37946,16 +37946,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>298.4303698644312</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>51.60081105582554</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>114.5081400587199</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>171.6180187748791</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>212.907327793534</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>236.900425020524</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>240.7337215691254</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>227.318026873075</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>194.0106767477459</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>145.6939384646737</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>84.74907675180543</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>51.18057382505155</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>395.4481201532384</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>116.5651135434841</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>156.7361801876899</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
-        <v>182.903729511016</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>187.7446469841394</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>171.7496730964874</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>137.8442543785809</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>92.14523357605344</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>163.1751954986662</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.78665376469155</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>347.8454081721616</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>365.6051087958668</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>94.86566424901332</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>92.60997078835715</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>85.54029738117845</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P46" t="n">
-        <v>424.2115665691178</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>220.5677709677748</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
-        <v>6.007722421746784</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
